--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -1,34 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39ECED-1DEC-4301-B96A-ADB9EC6CD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>cp369db</t>
+  </si>
+  <si>
+    <t>cpkankpro2</t>
+  </si>
+  <si>
+    <t>cpkansas</t>
+  </si>
+  <si>
+    <t>cpkant21</t>
+  </si>
+  <si>
+    <t>kanscp369</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +89,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,96 +393,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cp369db</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1388</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cpkankpro2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="1">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cpkansas</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cpkant21</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>114</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>kanscp369</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>1638</v>
       </c>
+      <c r="C7" s="1">
+        <v>1601</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39ECED-1DEC-4301-B96A-ADB9EC6CD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD00E948-7A06-490D-BF4F-26715F28530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2295" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Worker</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
   </si>
 </sst>
 </file>
@@ -394,93 +397,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1388</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1349</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>114</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>105</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>1638</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1601</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1615</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD00E948-7A06-490D-BF4F-26715F28530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45D717-D696-4AB9-AFA1-0EDB6CBD95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2295" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1545" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Worker</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
   </si>
 </sst>
 </file>
@@ -397,19 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,11 +425,17 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -433,11 +445,17 @@
       <c r="C2">
         <v>1349</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1361</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -447,11 +465,17 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -461,11 +485,17 @@
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -475,11 +505,17 @@
       <c r="C5">
         <v>113</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -489,11 +525,17 @@
       <c r="C6">
         <v>105</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -503,8 +545,14 @@
       <c r="C7">
         <v>1601</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1615</v>
+      </c>
+      <c r="E7">
+        <v>1610</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1617</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45D717-D696-4AB9-AFA1-0EDB6CBD95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0343A-9C7F-4117-B753-876A85D4B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1545" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Worker</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
   </si>
 </sst>
 </file>
@@ -403,19 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,11 +440,20 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,11 +469,20 @@
       <c r="E2">
         <v>1361</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>1365</v>
       </c>
+      <c r="G2">
+        <v>1379</v>
+      </c>
+      <c r="H2">
+        <v>1379</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1377</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -471,11 +498,20 @@
       <c r="E3">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>7</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -491,11 +527,20 @@
       <c r="E4">
         <v>26</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>26</v>
       </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -511,11 +556,20 @@
       <c r="E5">
         <v>112</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>114</v>
       </c>
+      <c r="G5">
+        <v>94</v>
+      </c>
+      <c r="H5">
+        <v>94</v>
+      </c>
+      <c r="I5" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -531,11 +585,20 @@
       <c r="E6">
         <v>104</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>105</v>
       </c>
+      <c r="G6">
+        <v>109</v>
+      </c>
+      <c r="H6">
+        <v>109</v>
+      </c>
+      <c r="I6" s="1">
+        <v>108</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -551,8 +614,17 @@
       <c r="E7">
         <v>1610</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1617</v>
+      </c>
+      <c r="G7">
+        <v>1627</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1627</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1624</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0343A-9C7F-4117-B753-876A85D4B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EE552-1E13-4CCD-84F5-1A3545AD2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1590" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Worker</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
   </si>
 </sst>
 </file>
@@ -412,19 +415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,11 +452,14 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,11 +484,14 @@
       <c r="H2">
         <v>1379</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>1377</v>
       </c>
+      <c r="J2" s="1">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -507,11 +516,14 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>11</v>
       </c>
+      <c r="J3" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -536,11 +548,14 @@
       <c r="H4">
         <v>35</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>34</v>
       </c>
+      <c r="J4" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -565,11 +580,14 @@
       <c r="H5">
         <v>94</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>94</v>
       </c>
+      <c r="J5" s="1">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -594,11 +612,14 @@
       <c r="H6">
         <v>109</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>108</v>
       </c>
+      <c r="J6" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -620,11 +641,14 @@
       <c r="G7">
         <v>1627</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1627</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>1624</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1631</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EE552-1E13-4CCD-84F5-1A3545AD2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7435B-0C41-4DE4-8CBE-5A18690DA431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1590" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="2415" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Worker</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
   </si>
 </sst>
 </file>
@@ -415,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,11 +458,14 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,11 +493,14 @@
       <c r="I2">
         <v>1377</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>1381</v>
       </c>
+      <c r="K2" s="1">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -519,11 +528,14 @@
       <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>11</v>
       </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -551,11 +563,14 @@
       <c r="I4">
         <v>34</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>35</v>
       </c>
+      <c r="K4" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -583,11 +598,14 @@
       <c r="I5">
         <v>94</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>93</v>
       </c>
+      <c r="K5" s="1">
+        <v>264</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -615,11 +633,14 @@
       <c r="I6">
         <v>108</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>111</v>
       </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -647,8 +668,11 @@
       <c r="I7">
         <v>1624</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>1631</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1673</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7435B-0C41-4DE4-8CBE-5A18690DA431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF519DC-6E50-41E7-816D-70B6A541629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2415" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="2100" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Worker</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>kansasS21Pro</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
   </si>
 </sst>
 </file>
@@ -418,19 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,11 +470,17 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -496,11 +511,17 @@
       <c r="J2">
         <v>1381</v>
       </c>
-      <c r="K2" s="1">
-        <v>1371</v>
+      <c r="K2">
+        <v>1370</v>
+      </c>
+      <c r="L2">
+        <v>1326</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1326</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -531,11 +552,17 @@
       <c r="J3">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -566,11 +593,17 @@
       <c r="J4">
         <v>35</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>35</v>
       </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -601,78 +634,110 @@
       <c r="J5">
         <v>93</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>264</v>
       </c>
+      <c r="L5">
+        <v>263</v>
+      </c>
+      <c r="M5" s="1">
+        <v>264</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>117</v>
+      </c>
+      <c r="L6">
+        <v>184</v>
+      </c>
+      <c r="M6" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>105</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>105</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>105</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>104</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>105</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>109</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>109</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>108</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>111</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7">
         <v>2</v>
       </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1638</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1601</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1615</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1610</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1617</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1627</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>1627</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>1624</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1631</v>
       </c>
-      <c r="K7" s="1">
-        <v>1673</v>
+      <c r="K8">
+        <v>1789</v>
+      </c>
+      <c r="L8">
+        <v>1811</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF519DC-6E50-41E7-816D-70B6A541629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F464781-91B5-4D5A-81FF-79C996AFB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2100" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Worker</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,7 +448,7 @@
     <col min="2" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,14 +482,23 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -517,11 +535,20 @@
       <c r="L2">
         <v>1326</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>1326</v>
       </c>
+      <c r="N2">
+        <v>1326</v>
+      </c>
+      <c r="O2">
+        <v>1324</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1327</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -558,11 +585,20 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -599,11 +635,20 @@
       <c r="L4">
         <v>35</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>35</v>
       </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -640,11 +685,20 @@
       <c r="L5">
         <v>263</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>264</v>
       </c>
+      <c r="N5">
+        <v>264</v>
+      </c>
+      <c r="O5">
+        <v>263</v>
+      </c>
+      <c r="P5" s="1">
+        <v>262</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -654,11 +708,20 @@
       <c r="L6">
         <v>184</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>349</v>
       </c>
+      <c r="N6">
+        <v>378</v>
+      </c>
+      <c r="O6">
+        <v>363</v>
+      </c>
+      <c r="P6" s="1">
+        <v>365</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -695,11 +758,20 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -736,8 +808,17 @@
       <c r="L8">
         <v>1811</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>1976</v>
+      </c>
+      <c r="N8">
+        <v>2005</v>
+      </c>
+      <c r="O8">
+        <v>1986</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1991</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F464781-91B5-4D5A-81FF-79C996AFB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D143A2-8DB0-4DFD-806E-4959C4EC6B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Worker</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +500,17 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -544,11 +556,17 @@
       <c r="O2">
         <v>1324</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>1327</v>
       </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -594,11 +612,17 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -644,11 +668,17 @@
       <c r="O4">
         <v>34</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>35</v>
       </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -694,11 +724,17 @@
       <c r="O5">
         <v>263</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>262</v>
       </c>
+      <c r="Q5">
+        <v>102</v>
+      </c>
+      <c r="R5">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -717,11 +753,17 @@
       <c r="O6">
         <v>363</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>365</v>
       </c>
+      <c r="Q6">
+        <v>342</v>
+      </c>
+      <c r="R6">
+        <v>415</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -767,11 +809,17 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -817,8 +865,14 @@
       <c r="O8">
         <v>1986</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>1991</v>
+      </c>
+      <c r="Q8">
+        <v>456</v>
+      </c>
+      <c r="R8">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D143A2-8DB0-4DFD-806E-4959C4EC6B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E816E-4135-4FC3-854E-2AFE8B5DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1545" windowWidth="19125" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Worker</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
 </sst>
 </file>
@@ -137,7 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,7 +471,7 @@
     <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +526,23 @@
       <c r="R1" t="s">
         <v>24</v>
       </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,8 +597,17 @@
       <c r="R2">
         <v>8</v>
       </c>
+      <c r="T2" s="2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -621,8 +662,17 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -677,8 +727,17 @@
       <c r="R4">
         <v>5</v>
       </c>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -733,8 +792,17 @@
       <c r="R5">
         <v>101</v>
       </c>
+      <c r="T5" s="2">
+        <v>98</v>
+      </c>
+      <c r="V5">
+        <v>98</v>
+      </c>
+      <c r="W5" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -762,8 +830,17 @@
       <c r="R6">
         <v>415</v>
       </c>
+      <c r="T6" s="2">
+        <v>424</v>
+      </c>
+      <c r="V6">
+        <v>412</v>
+      </c>
+      <c r="W6" s="1">
+        <v>411</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -818,8 +895,17 @@
       <c r="R7">
         <v>1</v>
       </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -873,6 +959,15 @@
       </c>
       <c r="R8">
         <v>530</v>
+      </c>
+      <c r="T8" s="2">
+        <v>534</v>
+      </c>
+      <c r="V8">
+        <v>521</v>
+      </c>
+      <c r="W8" s="1">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E816E-4135-4FC3-854E-2AFE8B5DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB744FA-77BD-46CA-87D3-1E041180F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1545" windowWidth="19125" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2475" windowWidth="20325" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Worker</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
   </si>
 </sst>
 </file>
@@ -152,9 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,7 +476,7 @@
     <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +546,14 @@
       <c r="W1" t="s">
         <v>29</v>
       </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -597,17 +608,23 @@
       <c r="R2">
         <v>8</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>7</v>
       </c>
       <c r="V2">
         <v>6</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>5</v>
       </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -662,17 +679,23 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -727,17 +750,23 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>5</v>
       </c>
       <c r="V4">
         <v>5</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>5</v>
       </c>
+      <c r="X4">
+        <v>12</v>
+      </c>
+      <c r="Y4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -792,17 +821,23 @@
       <c r="R5">
         <v>101</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>98</v>
       </c>
       <c r="V5">
         <v>98</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>97</v>
       </c>
+      <c r="X5">
+        <v>135</v>
+      </c>
+      <c r="Y5">
+        <v>152</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -830,17 +865,23 @@
       <c r="R6">
         <v>415</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>424</v>
       </c>
       <c r="V6">
         <v>412</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>411</v>
       </c>
+      <c r="X6">
+        <v>410</v>
+      </c>
+      <c r="Y6">
+        <v>409</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -895,17 +936,23 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -960,14 +1007,20 @@
       <c r="R8">
         <v>530</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>534</v>
       </c>
       <c r="V8">
         <v>521</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>518</v>
+      </c>
+      <c r="X8">
+        <v>579</v>
+      </c>
+      <c r="Y8">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB744FA-77BD-46CA-87D3-1E041180F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480A9CA5-3CD3-4E0F-A7B1-D4580B956694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2475" windowWidth="20325" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Worker</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,11 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,7 +492,7 @@
     <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +568,23 @@
       <c r="Y1" t="s">
         <v>31</v>
       </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -623,8 +654,20 @@
       <c r="Y2">
         <v>23</v>
       </c>
+      <c r="AA2">
+        <v>22</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -694,8 +737,20 @@
       <c r="Y3">
         <v>1</v>
       </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -765,8 +820,20 @@
       <c r="Y4">
         <v>12</v>
       </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -836,8 +903,20 @@
       <c r="Y5">
         <v>152</v>
       </c>
+      <c r="AA5">
+        <v>151</v>
+      </c>
+      <c r="AB5">
+        <v>113</v>
+      </c>
+      <c r="AC5">
+        <v>118</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>109</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -880,8 +959,20 @@
       <c r="Y6">
         <v>409</v>
       </c>
+      <c r="AA6">
+        <v>413</v>
+      </c>
+      <c r="AB6">
+        <v>501</v>
+      </c>
+      <c r="AC6">
+        <v>535</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>758</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -951,8 +1042,20 @@
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1021,6 +1124,18 @@
       </c>
       <c r="Y8">
         <v>598</v>
+      </c>
+      <c r="AA8">
+        <v>598</v>
+      </c>
+      <c r="AB8">
+        <v>625</v>
+      </c>
+      <c r="AC8">
+        <v>672</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>885</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-12.xlsx
+++ b/kansas_2025-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480A9CA5-3CD3-4E0F-A7B1-D4580B956694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B5ADE-0B0A-4C87-A3A5-3D72C6FEAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Worker</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
 </sst>
 </file>
@@ -478,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,7 +498,7 @@
     <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,11 +586,17 @@
       <c r="AC1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -663,11 +675,17 @@
       <c r="AC2">
         <v>11</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2">
         <v>11</v>
       </c>
+      <c r="AE2">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -746,11 +764,17 @@
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -829,11 +853,17 @@
       <c r="AC4">
         <v>7</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4">
         <v>6</v>
       </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -912,11 +942,17 @@
       <c r="AC5">
         <v>118</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>109</v>
       </c>
+      <c r="AE5">
+        <v>119</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -968,11 +1004,17 @@
       <c r="AC6">
         <v>535</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6">
         <v>758</v>
       </c>
+      <c r="AE6">
+        <v>711</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>721</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1051,11 +1093,17 @@
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AD7" s="1">
-        <v>1</v>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1134,8 +1182,14 @@
       <c r="AC8">
         <v>672</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8">
         <v>885</v>
+      </c>
+      <c r="AE8">
+        <v>859</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
